--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,13 +68,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T00:00:00+02:00</t>
+    <t>2025-07-10T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -119,28 +119,46 @@
     <t>CR (bedømt med CT og/eller klinisk)</t>
   </si>
   <si>
+    <t>metabolic_cr</t>
+  </si>
+  <si>
+    <t>CMR (metabolisk CR, deauville 1-3)</t>
+  </si>
+  <si>
+    <t>metabolic_pmr_4</t>
+  </si>
+  <si>
+    <t>PMR (metabolisk PR, deauville 4)</t>
+  </si>
+  <si>
+    <t>metabolic_pmr_5</t>
+  </si>
+  <si>
+    <t>PMR (metabolisk PR, deauville 5)</t>
+  </si>
+  <si>
     <t>uncertain_complete_remission</t>
   </si>
   <si>
-    <t>Cru</t>
+    <t>Usikker komplet remission</t>
   </si>
   <si>
     <t>partial_remission</t>
   </si>
   <si>
-    <t>PR</t>
+    <t>Partiel remission</t>
   </si>
   <si>
     <t>stable_disease</t>
   </si>
   <si>
-    <t>SD/NC</t>
+    <t>Stabil sygdom</t>
   </si>
   <si>
     <t>progressive_disease</t>
   </si>
   <si>
-    <t>PD</t>
+    <t>Progressiv sygdom</t>
   </si>
   <si>
     <t>System URI</t>
@@ -431,7 +449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,18 +525,42 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -548,10 +590,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -564,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -597,10 +639,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -613,10 +655,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T00:00:00+02:00</t>
+    <t>2022-07-18T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -119,46 +119,28 @@
     <t>CR (bedømt med CT og/eller klinisk)</t>
   </si>
   <si>
-    <t>metabolic_cr</t>
-  </si>
-  <si>
-    <t>CMR (metabolisk CR, deauville 1-3)</t>
-  </si>
-  <si>
-    <t>metabolic_pmr_4</t>
-  </si>
-  <si>
-    <t>PMR (metabolisk PR, deauville 4)</t>
-  </si>
-  <si>
-    <t>metabolic_pmr_5</t>
-  </si>
-  <si>
-    <t>PMR (metabolisk PR, deauville 5)</t>
-  </si>
-  <si>
     <t>uncertain_complete_remission</t>
   </si>
   <si>
-    <t>Usikker komplet remission</t>
+    <t>Cru</t>
   </si>
   <si>
     <t>partial_remission</t>
   </si>
   <si>
-    <t>Partiel remission</t>
+    <t>PR</t>
   </si>
   <si>
     <t>stable_disease</t>
   </si>
   <si>
-    <t>Stabil sygdom</t>
+    <t>SD/NC</t>
   </si>
   <si>
     <t>progressive_disease</t>
   </si>
   <si>
-    <t>Progressiv sygdom</t>
+    <t>PD</t>
   </si>
   <si>
     <t>System URI</t>
@@ -449,7 +431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,42 +507,18 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -590,10 +548,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -606,10 +564,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -639,10 +597,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -655,10 +613,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
+++ b/fhir/ValueSet-BehandlingsResponsEvalueringLYFO.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
